--- a/Ostatní/body.xlsx
+++ b/Ostatní/body.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\SIP\Ostatní\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
@@ -16,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Příjmení a jméno</t>
-  </si>
-  <si>
-    <t>Přerozdělené body celkem</t>
   </si>
   <si>
     <t>Důvod přerozdělení</t>
@@ -129,15 +131,21 @@
   <si>
     <t>Časově nejnáročnější práce oproti ostatním členům</t>
   </si>
+  <si>
+    <t>Implementace, testování</t>
+  </si>
+  <si>
+    <t>Práce na modelech, oprava</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$Kč-405];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$Kč-405]"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,7 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,9 +350,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -358,9 +363,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -410,9 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -430,6 +429,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -437,17 +440,25 @@
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="normální" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv sady Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Kancelář">
       <a:dk1>
@@ -489,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +532,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,6 +567,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kancelář">
@@ -730,399 +743,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K19"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.35" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14">
+        <v>-10</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="62.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="67.150000000000006" customHeight="1">
-      <c r="A4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="15">
-        <v>-10</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="62.65" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17">
+        <v>-2</v>
+      </c>
+      <c r="J5" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2</v>
+      </c>
+      <c r="J6" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="16">
+    </row>
+    <row r="7" spans="1:10" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
+        <v>-2</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17">
         <v>-2</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20">
+      <c r="J7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="17">
+        <v>2</v>
+      </c>
+      <c r="J8" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="52.9" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26">
+        <v>10</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>4</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26">
+        <v>4</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="64.150000000000006" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="15">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17">
-        <v>4</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="70.900000000000006" customHeight="1">
-      <c r="A8" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.25">
-      <c r="A9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="77.650000000000006" customHeight="1">
-      <c r="A10" s="26" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" s="20">
-        <v>10</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28">
-        <v>4</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28">
-        <v>4</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29">
-        <v>2</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29">
-        <v>0</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29">
-        <v>0</v>
-      </c>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
-        <v>0</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
-        <v>0</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29">
-        <v>0</v>
-      </c>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29">
-        <v>3</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29">
-        <v>0</v>
-      </c>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29">
-        <v>0</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29">
-        <v>0</v>
-      </c>
-      <c r="K14" s="29"/>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29">
-        <v>0</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29">
-        <v>0</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29">
-        <v>0</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29">
-        <v>0</v>
-      </c>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="31">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1136,12 +1139,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
@@ -1156,12 +1159,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
   </cols>
